--- a/data/RR vs Truth.xlsx
+++ b/data/RR vs Truth.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="22240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="synth_dataset_results" localSheetId="3">Sheet4!$A$2:$C$36</definedName>
+    <definedName name="synth_dataset_results2" localSheetId="4">Sheet5!$A$2:$D$35</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -39,11 +41,23 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="synth_dataset_results2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:aigrain:Soft:GPSpec:data:synth_dataset_results2.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>delta v(1-0) = -0.789 + 1.990 -1.836</t>
   </si>
@@ -205,6 +219,108 @@
   </si>
   <si>
     <t>TRUTH</t>
+  </si>
+  <si>
+    <t>dv(1-0)</t>
+  </si>
+  <si>
+    <t>dv(2-0)</t>
+  </si>
+  <si>
+    <t>dv(3-0)</t>
+  </si>
+  <si>
+    <t>dv(4-0)</t>
+  </si>
+  <si>
+    <t>dv(5-0)</t>
+  </si>
+  <si>
+    <t>dv(6-0)</t>
+  </si>
+  <si>
+    <t>dv(7-0)</t>
+  </si>
+  <si>
+    <t>dv(8-0)</t>
+  </si>
+  <si>
+    <t>dv(9-0)</t>
+  </si>
+  <si>
+    <t>dv(10-0)</t>
+  </si>
+  <si>
+    <t>dv(11-0)</t>
+  </si>
+  <si>
+    <t>dv(12-0)</t>
+  </si>
+  <si>
+    <t>dv(13-0)</t>
+  </si>
+  <si>
+    <t>dv(14-0)</t>
+  </si>
+  <si>
+    <t>dv(15-0)</t>
+  </si>
+  <si>
+    <t>dv(16-0)</t>
+  </si>
+  <si>
+    <t>dv(17-0)</t>
+  </si>
+  <si>
+    <t>dv(18-0)</t>
+  </si>
+  <si>
+    <t>dv(19-0)</t>
+  </si>
+  <si>
+    <t>dv(20-0)</t>
+  </si>
+  <si>
+    <t>dv(21-0)</t>
+  </si>
+  <si>
+    <t>dv(22-0)</t>
+  </si>
+  <si>
+    <t>dv(23-0)</t>
+  </si>
+  <si>
+    <t>dv(24-0)</t>
+  </si>
+  <si>
+    <t>dv(25-0)</t>
+  </si>
+  <si>
+    <t>dv(26-0)</t>
+  </si>
+  <si>
+    <t>dv(27-0)</t>
+  </si>
+  <si>
+    <t>dv(28-0)</t>
+  </si>
+  <si>
+    <t>dv(29-0)</t>
+  </si>
+  <si>
+    <t>dv(30-0)</t>
+  </si>
+  <si>
+    <t>dv(31-0)</t>
+  </si>
+  <si>
+    <t>dv(32-0)</t>
+  </si>
+  <si>
+    <t>dv(33-0)</t>
+  </si>
+  <si>
+    <t>dv(34-0)</t>
   </si>
 </sst>
 </file>
@@ -276,8 +392,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -302,7 +420,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -310,6 +428,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -317,6 +436,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -326,6 +446,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="synth_dataset_results" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="synth_dataset_results2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -663,7 +787,7 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -678,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -697,8 +821,11 @@
         <f t="shared" ref="E2:E11" si="0">D2*D2</f>
         <v>0.6225210000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +845,7 @@
         <v>10.503617460091869</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -737,8 +864,11 @@
         <f t="shared" si="0"/>
         <v>6.5799909644493537</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>-11.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,7 +888,7 @@
         <v>0.17211098314862908</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -777,8 +907,11 @@
         <f t="shared" si="0"/>
         <v>9.8771303774484467E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>-5.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,7 +930,7 @@
         <v>7.6842020532584765E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -816,8 +949,11 @@
         <f t="shared" si="0"/>
         <v>1.509959496983946</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -837,7 +973,7 @@
         <v>4.8923707286869442</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -855,8 +991,11 @@
         <f t="shared" si="0"/>
         <v>1.690419047053108</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>-9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -875,7 +1014,7 @@
         <v>93.368066885952615</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="D12">
         <f>AVERAGE(D2:D11)</f>
         <v>2.200497432058063</v>
@@ -1096,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1558,7 +1697,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+      <selection activeCell="E2" sqref="E2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1593,7 +1732,7 @@
         <v>-2.004</v>
       </c>
       <c r="D2">
-        <f>-C2</f>
+        <f t="shared" ref="D2:D36" si="0">-C2</f>
         <v>2.004</v>
       </c>
       <c r="E2">
@@ -1615,14 +1754,14 @@
         <v>-2.1880000000000002</v>
       </c>
       <c r="D3">
-        <f>-C3</f>
+        <f t="shared" si="0"/>
         <v>2.1880000000000002</v>
       </c>
       <c r="E3">
         <v>0.66084140808270797</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F36" si="0">E3-A3</f>
+        <f t="shared" ref="F3:F36" si="1">E3-A3</f>
         <v>1.0068414080827079</v>
       </c>
     </row>
@@ -1637,14 +1776,14 @@
         <v>-2.2589999999999999</v>
       </c>
       <c r="D4">
-        <f>-C4</f>
+        <f t="shared" si="0"/>
         <v>2.2589999999999999</v>
       </c>
       <c r="E4">
         <v>-4.0111624348385702</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.4781624348385698</v>
       </c>
     </row>
@@ -1659,14 +1798,14 @@
         <v>-2.1440000000000001</v>
       </c>
       <c r="D5">
-        <f>-C5</f>
+        <f t="shared" si="0"/>
         <v>2.1440000000000001</v>
       </c>
       <c r="E5">
         <v>-4.0345519687217299</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2855519687217298</v>
       </c>
     </row>
@@ -1681,14 +1820,14 @@
         <v>-2.1030000000000002</v>
       </c>
       <c r="D6">
-        <f>-C6</f>
+        <f t="shared" si="0"/>
         <v>2.1030000000000002</v>
       </c>
       <c r="E6">
         <v>-4.3799560470437502</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.82695604704375025</v>
       </c>
     </row>
@@ -1703,14 +1842,14 @@
         <v>-1.917</v>
       </c>
       <c r="D7">
-        <f>-C7</f>
+        <f t="shared" si="0"/>
         <v>1.917</v>
       </c>
       <c r="E7">
         <v>-4.4027944769997402</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1427944769997405</v>
       </c>
     </row>
@@ -1725,14 +1864,14 @@
         <v>-2.573</v>
       </c>
       <c r="D8">
-        <f>-C8</f>
+        <f t="shared" si="0"/>
         <v>2.573</v>
       </c>
       <c r="E8">
         <v>-7.5474353423251701</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62056465767482916</v>
       </c>
     </row>
@@ -1747,14 +1886,14 @@
         <v>-3.0539999999999998</v>
       </c>
       <c r="D9">
-        <f>-C9</f>
+        <f t="shared" si="0"/>
         <v>3.0539999999999998</v>
       </c>
       <c r="E9">
         <v>-7.5624741749122304</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.0394741749122307</v>
       </c>
     </row>
@@ -1769,14 +1908,14 @@
         <v>-2.65</v>
       </c>
       <c r="D10">
-        <f>-C10</f>
+        <f t="shared" si="0"/>
         <v>2.65</v>
       </c>
       <c r="E10">
         <v>-7.77892465806055</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.33007534193945</v>
       </c>
     </row>
@@ -1791,14 +1930,14 @@
         <v>-2.859</v>
       </c>
       <c r="D11">
-        <f>-C11</f>
+        <f t="shared" si="0"/>
         <v>2.859</v>
       </c>
       <c r="E11">
         <v>-7.7929933088039496</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.78799330880394969</v>
       </c>
     </row>
@@ -1813,14 +1952,14 @@
         <v>-2.5289999999999999</v>
       </c>
       <c r="D12">
-        <f>-C12</f>
+        <f t="shared" si="0"/>
         <v>2.5289999999999999</v>
       </c>
       <c r="E12">
         <v>-8.6674860889321295</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.1724860889321294</v>
       </c>
     </row>
@@ -1835,14 +1974,14 @@
         <v>-2.2509999999999999</v>
       </c>
       <c r="D13">
-        <f>-C13</f>
+        <f t="shared" si="0"/>
         <v>2.2509999999999999</v>
       </c>
       <c r="E13">
         <v>-8.6580768453805899</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.2400768453805897</v>
       </c>
     </row>
@@ -1857,14 +1996,14 @@
         <v>-2.254</v>
       </c>
       <c r="D14">
-        <f>-C14</f>
+        <f t="shared" si="0"/>
         <v>2.254</v>
       </c>
       <c r="E14">
         <v>-8.5231571882766808</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3621571882766812</v>
       </c>
     </row>
@@ -1879,14 +2018,14 @@
         <v>-2.3370000000000002</v>
       </c>
       <c r="D15">
-        <f>-C15</f>
+        <f t="shared" si="0"/>
         <v>2.3370000000000002</v>
       </c>
       <c r="E15">
         <v>-5.9467488710095298</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1977488710095301</v>
       </c>
     </row>
@@ -1901,14 +2040,14 @@
         <v>-2.1669999999999998</v>
       </c>
       <c r="D16">
-        <f>-C16</f>
+        <f t="shared" si="0"/>
         <v>2.1669999999999998</v>
       </c>
       <c r="E16">
         <v>-5.9269025035429603</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.3589025035429607</v>
       </c>
     </row>
@@ -1923,14 +2062,14 @@
         <v>-2.1720000000000002</v>
       </c>
       <c r="D17">
-        <f>-C17</f>
+        <f t="shared" si="0"/>
         <v>2.1720000000000002</v>
       </c>
       <c r="E17">
         <v>-5.62774462936693</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1367446293669303</v>
       </c>
     </row>
@@ -1945,14 +2084,14 @@
         <v>-2.5009999999999999</v>
       </c>
       <c r="D18">
-        <f>-C18</f>
+        <f t="shared" si="0"/>
         <v>2.5009999999999999</v>
       </c>
       <c r="E18">
         <v>-5.6071496679334203</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92085033206657929</v>
       </c>
     </row>
@@ -1967,14 +2106,14 @@
         <v>-1.9339999999999999</v>
       </c>
       <c r="D19">
-        <f>-C19</f>
+        <f t="shared" si="0"/>
         <v>1.9339999999999999</v>
       </c>
       <c r="E19">
         <v>-1.72282741448725</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.97482741448725</v>
       </c>
     </row>
@@ -1989,14 +2128,14 @@
         <v>-1.8720000000000001</v>
       </c>
       <c r="D20">
-        <f>-C20</f>
+        <f t="shared" si="0"/>
         <v>1.8720000000000001</v>
       </c>
       <c r="E20">
         <v>-1.6970446845946701</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8130446845946702</v>
       </c>
     </row>
@@ -2011,14 +2150,14 @@
         <v>-2.0249999999999999</v>
       </c>
       <c r="D21">
-        <f>-C21</f>
+        <f t="shared" si="0"/>
         <v>2.0249999999999999</v>
       </c>
       <c r="E21">
         <v>-1.31452796295462</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.52347203704538</v>
       </c>
     </row>
@@ -2033,14 +2172,14 @@
         <v>-2.282</v>
       </c>
       <c r="D22">
-        <f>-C22</f>
+        <f t="shared" si="0"/>
         <v>2.282</v>
       </c>
       <c r="E22">
         <v>-1.2885269548329901</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.38052695483299004</v>
       </c>
     </row>
@@ -2055,14 +2194,14 @@
         <v>-2.149</v>
       </c>
       <c r="D23">
-        <f>-C23</f>
+        <f t="shared" si="0"/>
         <v>2.149</v>
       </c>
       <c r="E23">
         <v>7.308572426434</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2675724264339996</v>
       </c>
     </row>
@@ -2077,14 +2216,14 @@
         <v>-2.96</v>
       </c>
       <c r="D24">
-        <f>-C24</f>
+        <f t="shared" si="0"/>
         <v>2.96</v>
       </c>
       <c r="E24">
         <v>7.3284351482171202</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1145648517828795</v>
       </c>
     </row>
@@ -2099,14 +2238,14 @@
         <v>-2.6379999999999999</v>
       </c>
       <c r="D25">
-        <f>-C25</f>
+        <f t="shared" si="0"/>
         <v>2.6379999999999999</v>
       </c>
       <c r="E25">
         <v>7.5903328578519096</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.82966714214809034</v>
       </c>
     </row>
@@ -2121,14 +2260,14 @@
         <v>-3.032</v>
       </c>
       <c r="D26">
-        <f>-C26</f>
+        <f t="shared" si="0"/>
         <v>3.032</v>
       </c>
       <c r="E26">
         <v>7.60950610454341</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7625061045434105</v>
       </c>
     </row>
@@ -2143,14 +2282,14 @@
         <v>-2.2690000000000001</v>
       </c>
       <c r="D27">
-        <f>-C27</f>
+        <f t="shared" si="0"/>
         <v>2.2690000000000001</v>
       </c>
       <c r="E27">
         <v>10.033704465027499</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9627044650274996</v>
       </c>
     </row>
@@ -2165,14 +2304,14 @@
         <v>-2.2829999999999999</v>
       </c>
       <c r="D28">
-        <f>-C28</f>
+        <f t="shared" si="0"/>
         <v>2.2829999999999999</v>
       </c>
       <c r="E28">
         <v>10.0431066216267</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4381066216266998</v>
       </c>
     </row>
@@ -2187,14 +2326,14 @@
         <v>-2.613</v>
       </c>
       <c r="D29">
-        <f>-C29</f>
+        <f t="shared" si="0"/>
         <v>2.613</v>
       </c>
       <c r="E29">
         <v>10.6186726542089</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.428672654208901</v>
       </c>
     </row>
@@ -2209,14 +2348,14 @@
         <v>-2.4529999999999998</v>
       </c>
       <c r="D30">
-        <f>-C30</f>
+        <f t="shared" si="0"/>
         <v>2.4529999999999998</v>
       </c>
       <c r="E30">
         <v>10.615537680578299</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1575376805782991</v>
       </c>
     </row>
@@ -2231,14 +2370,14 @@
         <v>-2.1160000000000001</v>
       </c>
       <c r="D31">
-        <f>-C31</f>
+        <f t="shared" si="0"/>
         <v>2.1160000000000001</v>
       </c>
       <c r="E31">
         <v>8.9412522822422797</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4322522822422794</v>
       </c>
     </row>
@@ -2253,14 +2392,14 @@
         <v>-3.2120000000000002</v>
       </c>
       <c r="D32">
-        <f>-C32</f>
+        <f t="shared" si="0"/>
         <v>3.2120000000000002</v>
       </c>
       <c r="E32">
         <v>8.92624213574795</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98124213574794972</v>
       </c>
     </row>
@@ -2275,14 +2414,14 @@
         <v>-2.0859999999999999</v>
       </c>
       <c r="D33">
-        <f>-C33</f>
+        <f t="shared" si="0"/>
         <v>2.0859999999999999</v>
       </c>
       <c r="E33">
         <v>5.3745291501104298</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6085291501104297</v>
       </c>
     </row>
@@ -2297,14 +2436,14 @@
         <v>-2.4289999999999998</v>
       </c>
       <c r="D34">
-        <f>-C34</f>
+        <f t="shared" si="0"/>
         <v>2.4289999999999998</v>
       </c>
       <c r="E34">
         <v>5.3510918143346604</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2070918143346603</v>
       </c>
     </row>
@@ -2319,14 +2458,14 @@
         <v>-1.8069999999999999</v>
       </c>
       <c r="D35">
-        <f>-C35</f>
+        <f t="shared" si="0"/>
         <v>1.8069999999999999</v>
       </c>
       <c r="E35">
         <v>0.71390743676277901</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.35809256323722105</v>
       </c>
     </row>
@@ -2341,15 +2480,625 @@
         <v>-2.36</v>
       </c>
       <c r="D36">
-        <f>-C36</f>
+        <f t="shared" si="0"/>
         <v>2.36</v>
       </c>
       <c r="E36">
         <v>0.68737651862442695</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4453765186244265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="E1">
+        <v>0.68737651862442495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="D2">
+        <v>-1.7649999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.66084140808270797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="D3">
+        <v>-2.016</v>
+      </c>
+      <c r="E3">
+        <v>-4.0111624348385702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>-1.2649999999999999</v>
+      </c>
+      <c r="C4">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="D4">
+        <v>-1.798</v>
+      </c>
+      <c r="E4">
+        <v>-4.0345519687217299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>-4.6319999999999997</v>
+      </c>
+      <c r="C5">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="D5">
+        <v>-1.9239999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-4.3799560470437502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>-0.96499999999999997</v>
+      </c>
+      <c r="C6">
+        <v>2.839</v>
+      </c>
+      <c r="D6">
+        <v>-3.085</v>
+      </c>
+      <c r="E6">
+        <v>-4.4027944769997402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>-12.278</v>
+      </c>
+      <c r="C7">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="D7">
+        <v>-2.819</v>
+      </c>
+      <c r="E7">
+        <v>-7.5474353423251701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>-4.649</v>
+      </c>
+      <c r="C8">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-2.798</v>
+      </c>
+      <c r="E8">
+        <v>-7.5624741749122304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>-7.4939999999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="D9">
+        <v>-2.1269999999999998</v>
+      </c>
+      <c r="E9">
+        <v>-7.77892465806055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>-10.343999999999999</v>
+      </c>
+      <c r="C10">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="D10">
+        <v>-2.427</v>
+      </c>
+      <c r="E10">
+        <v>-7.7929933088039496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>-2.089</v>
+      </c>
+      <c r="C11">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="D11">
+        <v>-2.5110000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-8.6674860889321295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>-1.8540000000000001</v>
+      </c>
+      <c r="C12">
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="D12">
+        <v>-2.3540000000000001</v>
+      </c>
+      <c r="E12">
+        <v>-8.6580768453805899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>-1.042</v>
+      </c>
+      <c r="C13">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="D13">
+        <v>-2.2330000000000001</v>
+      </c>
+      <c r="E13">
+        <v>-8.5231571882766808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>-5.923</v>
+      </c>
+      <c r="C14">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="D14">
+        <v>-2.7959999999999998</v>
+      </c>
+      <c r="E14">
+        <v>-5.9467488710095298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>-2.927</v>
+      </c>
+      <c r="C15">
+        <v>1.65</v>
+      </c>
+      <c r="D15">
+        <v>-1.556</v>
+      </c>
+      <c r="E15">
+        <v>-5.9269025035429603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.752</v>
+      </c>
+      <c r="D16">
+        <v>-1.619</v>
+      </c>
+      <c r="E16">
+        <v>-5.62774462936693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="C17">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="D17">
+        <v>-2.7909999999999999</v>
+      </c>
+      <c r="E17">
+        <v>-5.6071496679334203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>-0.85099999999999998</v>
+      </c>
+      <c r="C18">
+        <v>1.847</v>
+      </c>
+      <c r="D18">
+        <v>-1.6439999999999999</v>
+      </c>
+      <c r="E18">
+        <v>-1.72282741448725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>6.6219999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.913</v>
+      </c>
+      <c r="D19">
+        <v>-2.0720000000000001</v>
+      </c>
+      <c r="E19">
+        <v>-1.6970446845946701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>-2.214</v>
+      </c>
+      <c r="C20">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D20">
+        <v>-3</v>
+      </c>
+      <c r="E20">
+        <v>-1.31452796295462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>-2.38</v>
+      </c>
+      <c r="C21">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="D21">
+        <v>-2.2559999999999998</v>
+      </c>
+      <c r="E21">
+        <v>-1.2885269548329901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="C22">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="D22">
+        <v>-1.7110000000000001</v>
+      </c>
+      <c r="E22">
+        <v>7.308572426434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>1.391</v>
+      </c>
+      <c r="C23">
+        <v>2.379</v>
+      </c>
+      <c r="D23">
+        <v>-2.3330000000000002</v>
+      </c>
+      <c r="E23">
+        <v>7.3284351482171202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="C24">
+        <v>2.14</v>
+      </c>
+      <c r="D24">
+        <v>-2.2080000000000002</v>
+      </c>
+      <c r="E24">
+        <v>7.5903328578519096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>4.51</v>
+      </c>
+      <c r="C25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D25">
+        <v>-1.7130000000000001</v>
+      </c>
+      <c r="E25">
+        <v>7.60950610454341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>7.9969999999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="D26">
+        <v>-2.6150000000000002</v>
+      </c>
+      <c r="E26">
+        <v>10.033704465027499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="C27">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="D27">
+        <v>-1.853</v>
+      </c>
+      <c r="E27">
+        <v>10.0431066216267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>3.1890000000000001</v>
+      </c>
+      <c r="C28">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="D28">
+        <v>-2.206</v>
+      </c>
+      <c r="E28">
+        <v>10.6186726542089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>0.183</v>
+      </c>
+      <c r="C29">
+        <v>2.09</v>
+      </c>
+      <c r="D29">
+        <v>-2.7160000000000002</v>
+      </c>
+      <c r="E29">
+        <v>10.615537680578299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="C30">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="D30">
+        <v>-2.423</v>
+      </c>
+      <c r="E30">
+        <v>8.9412522822422797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31">
+        <v>11.132</v>
+      </c>
+      <c r="C31">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="D31">
+        <v>-2.4790000000000001</v>
+      </c>
+      <c r="E31">
+        <v>8.92624213574795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>9.2889999999999997</v>
+      </c>
+      <c r="C32">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="D32">
+        <v>-3.056</v>
+      </c>
+      <c r="E32">
+        <v>5.3745291501104298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="C33">
+        <v>2.056</v>
+      </c>
+      <c r="D33">
+        <v>-2.7909999999999999</v>
+      </c>
+      <c r="E33">
+        <v>5.3510918143346604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.609</v>
+      </c>
+      <c r="D34">
+        <v>-1.7210000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.71390743676277901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="C35">
+        <v>1.591</v>
+      </c>
+      <c r="D35">
+        <v>-1.6040000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.68737651862442695</v>
       </c>
     </row>
   </sheetData>
